--- a/Anexos/dicionario_classif_pnad_covid.xlsx
+++ b/Anexos/dicionario_classif_pnad_covid.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Pessoal\Mercado-de-Trabalho\Anexos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D757EFC1-3C5C-4D97-AB78-EF591D881E29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Ocupação</t>
   </si>
   <si>
-    <t xml:space="preserve">Grandes Grupos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subgrupos Principal</t>
+    <t>Grandes Grupos</t>
+  </si>
+  <si>
+    <t>Subgrupos Principal</t>
   </si>
   <si>
     <t>Subgrupos</t>
   </si>
   <si>
-    <t xml:space="preserve">Grupos de Base</t>
+    <t>Grupos de Base</t>
   </si>
   <si>
     <t xml:space="preserve">Empregado doméstico, diarista, cozinheiro (em domicílios particulares), </t>
@@ -36,40 +43,40 @@
     <t xml:space="preserve">Faxineiro, auxiliar de limpeza etc. (em empresa pública ou privada), </t>
   </si>
   <si>
-    <t xml:space="preserve">Auxiliar de escritório, escriturário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secretária, recepcionista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operador de Telemarketing</t>
+    <t>Auxiliar de escritório, escriturário</t>
+  </si>
+  <si>
+    <t>Secretária, recepcionista</t>
+  </si>
+  <si>
+    <t>Operador de Telemarketing</t>
   </si>
   <si>
     <t xml:space="preserve">Comerciante (dono do bar, da loja etc.) </t>
   </si>
   <si>
-    <t xml:space="preserve">Balconista, vendedor de loja</t>
+    <t>Balconista, vendedor de loja</t>
   </si>
   <si>
     <t xml:space="preserve">Vendedor a domicílio, representante de vendas, vendedor de catálogo (Avon, Natura etc.)  </t>
   </si>
   <si>
-    <t xml:space="preserve">Vendedor ambulante (feirante, camelô, comerciante de rua, quiosque)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cozinheiro e garçom (de restaurantes, empresas)</t>
+    <t>Vendedor ambulante (feirante, camelô, comerciante de rua, quiosque)</t>
+  </si>
+  <si>
+    <t>Cozinheiro e garçom (de restaurantes, empresas)</t>
   </si>
   <si>
     <t xml:space="preserve">Padeiro, açougueiro e doceiro </t>
   </si>
   <si>
-    <t xml:space="preserve">Agricultor, criador de animais, pescador, silvicultor e jardineiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auxiliar da agropecuária (colhedor de frutas, boia fria, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motorista (de aplicativo, de taxi, de van, de mototáxi, de ônibus)</t>
+    <t>Agricultor, criador de animais, pescador, silvicultor e jardineiro</t>
+  </si>
+  <si>
+    <t>Auxiliar da agropecuária (colhedor de frutas, boia fria, etc.)</t>
+  </si>
+  <si>
+    <t>Motorista (de aplicativo, de taxi, de van, de mototáxi, de ônibus)</t>
   </si>
   <si>
     <t xml:space="preserve">Motorista de caminhão (caminhoneiro), </t>
@@ -81,76 +88,109 @@
     <t xml:space="preserve">Entregador de mercadorias (de restaurante, de farmácia, de loja, Uber Eats, IFood, Rappy etc.) </t>
   </si>
   <si>
-    <t xml:space="preserve">Pedreiro, servente de pedreiro, pintor, eletricista, marceneiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mecânico de veículos, máquinas industriais etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artesão, costureiro e sapateiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabeleireiro, manicure e afins</t>
+    <t>Pedreiro, servente de pedreiro, pintor, eletricista, marceneiro</t>
+  </si>
+  <si>
+    <t>Mecânico de veículos, máquinas industriais etc.</t>
+  </si>
+  <si>
+    <t>Artesão, costureiro e sapateiro</t>
+  </si>
+  <si>
+    <t>Cabeleireiro, manicure e afins</t>
   </si>
   <si>
     <t xml:space="preserve">Operador de máquinas, montador na indústria; </t>
   </si>
   <si>
-    <t xml:space="preserve">Auxiliar de produção, de carga e descarga;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professor da educação infantil, de ensino fundamental, médio ou superior,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedagogo, professor de idiomas, música, arte e reforço escolar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Médico, enfermeiro, profissionais de saúde de nível superior</t>
+    <t>Auxiliar de produção, de carga e descarga;</t>
+  </si>
+  <si>
+    <t>Professor da educação infantil, de ensino fundamental, médio ou superior,</t>
+  </si>
+  <si>
+    <t>Pedagogo, professor de idiomas, música, arte e reforço escolar</t>
+  </si>
+  <si>
+    <t>Médico, enfermeiro, profissionais de saúde de nível superior</t>
   </si>
   <si>
     <t xml:space="preserve">Técnico, profissional da saúde de nível médio </t>
   </si>
   <si>
-    <t xml:space="preserve">Cuidador de crianças, doentes ou idosos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segurança, vigilante, outro trabalhador dos serviços de proteção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policial civil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porteiro, zelador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artista, religioso (padre, pastor etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diretor, gerente, cargo político ou comissionado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outra profissão de nível superior (advogado, engenheiro, contador, jornalista etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outro técnico ou profissional de nível médio</t>
+    <t>Cuidador de crianças, doentes ou idosos</t>
+  </si>
+  <si>
+    <t>Segurança, vigilante, outro trabalhador dos serviços de proteção</t>
+  </si>
+  <si>
+    <t>Policial civil</t>
+  </si>
+  <si>
+    <t>Porteiro, zelador</t>
+  </si>
+  <si>
+    <t>Artista, religioso (padre, pastor etc.)</t>
+  </si>
+  <si>
+    <t>Diretor, gerente, cargo político ou comissionado</t>
+  </si>
+  <si>
+    <t>Outra profissão de nível superior (advogado, engenheiro, contador, jornalista etc.)</t>
+  </si>
+  <si>
+    <t>Outro técnico ou profissional de nível médio</t>
   </si>
   <si>
     <t>Outros</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>OCUPAÇÕES ELEMENTARES</t>
+  </si>
+  <si>
+    <t>OPERADORES DE INSTALAÇÕES E MÁQUINAS E MONTADORES</t>
+  </si>
+  <si>
+    <t>TRABALHADORES QUALIFICADOS, OPERÁRIOS E ARTESÃOS DA CONSTRUÇÃO, DAS ARTES MECÂNICAS E OUTROS OFÍCIOS</t>
+  </si>
+  <si>
+    <t>TRABALHADORES QUALIFICADOS DA AGROPECUÁRIA, FLORESTAIS, DA CAÇA E DA PESCA</t>
+  </si>
+  <si>
+    <t>TRABALHADORES DOS SERVIÇOS, VENDEDORES DOS COMÉRCIOS E MERCADOS</t>
+  </si>
+  <si>
+    <t>TRABALHADORES DE APOIO ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>TÉCNICOS E PROFISSIONAIS DE NÍVEL MÉDIO</t>
+  </si>
+  <si>
+    <t>PROFISSIONAIS DAS CIÊNCIAS E INTELECTUAIS</t>
+  </si>
+  <si>
+    <t>DIRETORES E GERENTES</t>
+  </si>
+  <si>
+    <t>OUTROS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -164,8 +204,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="0"/>
-        <bgColor theme="0" tint="0"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -203,24 +243,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,295 +269,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -722,638 +480,757 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="14.25">
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="4">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>91</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>911</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>9111</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="C3" s="4">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>91</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>911</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>9112</v>
       </c>
-    </row>
-    <row r="4" ht="14.25">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>41</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>411</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>4110</v>
       </c>
-    </row>
-    <row r="5" ht="14.25">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>41</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>412</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>4120</v>
       </c>
-    </row>
-    <row r="6" ht="14.25">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>42</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>422</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>4223</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>52</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>522</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>5221</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>52</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>522</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>5223</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>52</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>524</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>5243</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4">
+      <c r="C10" s="4">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
         <v>95</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>952</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>9520</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4">
+      <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D11" s="5">
         <v>51</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>512</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>5120</v>
       </c>
     </row>
-    <row r="12" ht="14.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4">
+      <c r="C12" s="4">
         <v>7</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>75</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>751</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>7512</v>
       </c>
     </row>
-    <row r="13" ht="14.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4">
+      <c r="C13" s="4">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="5">
         <v>61</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>612</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>6129</v>
       </c>
     </row>
-    <row r="14" ht="14.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4">
+      <c r="C14" s="4">
         <v>9</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="5">
         <v>92</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>921</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>9213</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4">
+      <c r="C15" s="4">
         <v>8</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D15" s="5">
         <v>83</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>832</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>8322</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4">
+      <c r="C16" s="4">
         <v>8</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D16" s="5">
         <v>83</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <v>833</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>8332</v>
       </c>
     </row>
-    <row r="17" ht="14.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4">
+      <c r="C17" s="4">
         <v>8</v>
       </c>
-      <c r="C17" s="5">
+      <c r="D17" s="5">
         <v>83</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>832</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>8321</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4">
+      <c r="C18" s="4">
         <v>9</v>
       </c>
-      <c r="C18" s="5">
+      <c r="D18" s="5">
         <v>96</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>962</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>9621</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4">
+      <c r="C19" s="4">
         <v>7</v>
       </c>
-      <c r="C19" s="5">
+      <c r="D19" s="5">
         <v>71</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>711</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <v>7112</v>
       </c>
     </row>
-    <row r="20" ht="14.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4">
+      <c r="C20" s="4">
         <v>7</v>
       </c>
-      <c r="C20" s="5">
+      <c r="D20" s="5">
         <v>72</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E20" s="5">
         <v>723</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>7231</v>
       </c>
     </row>
-    <row r="21" ht="14.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="4">
+      <c r="C21" s="4">
         <v>7</v>
       </c>
-      <c r="C21" s="5">
+      <c r="D21" s="5">
         <v>75</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="5">
         <v>753</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5">
         <v>7536</v>
       </c>
     </row>
-    <row r="22" ht="14.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="4">
+      <c r="C22" s="4">
         <v>5</v>
       </c>
-      <c r="C22" s="5">
+      <c r="D22" s="5">
         <v>51</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="5">
         <v>514</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="5">
         <v>5141</v>
       </c>
     </row>
-    <row r="23" ht="14.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4">
+      <c r="C23" s="4">
         <v>8</v>
       </c>
-      <c r="C23" s="5">
+      <c r="D23" s="5">
         <v>81</v>
       </c>
-      <c r="D23" s="5">
+      <c r="E23" s="5">
         <v>811</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
         <v>8111</v>
       </c>
     </row>
-    <row r="24" ht="14.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="4">
+      <c r="C24" s="4">
         <v>4</v>
       </c>
-      <c r="C24" s="5">
+      <c r="D24" s="5">
         <v>43</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E24" s="5">
         <v>432</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <v>4321</v>
       </c>
     </row>
-    <row r="25" ht="14.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="4">
+      <c r="C25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="5">
+      <c r="D25" s="5">
         <v>23</v>
       </c>
-      <c r="D25" s="5">
+      <c r="E25" s="5">
         <v>231</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
         <v>2310</v>
       </c>
     </row>
-    <row r="26" ht="14.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="4">
+      <c r="C26" s="4">
         <v>2</v>
       </c>
-      <c r="C26" s="5">
+      <c r="D26" s="5">
         <v>23</v>
       </c>
-      <c r="D26" s="5">
+      <c r="E26" s="5">
         <v>235</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <v>2351</v>
       </c>
     </row>
-    <row r="27" ht="14.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="4">
+      <c r="C27" s="4">
         <v>2</v>
       </c>
-      <c r="C27" s="5">
+      <c r="D27" s="5">
         <v>22</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="5">
         <v>221</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>2211</v>
       </c>
     </row>
-    <row r="28" ht="14.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="4">
+      <c r="C28" s="4">
         <v>3</v>
       </c>
-      <c r="C28" s="5">
+      <c r="D28" s="5">
         <v>32</v>
       </c>
-      <c r="D28" s="5">
+      <c r="E28" s="5">
         <v>322</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="5">
         <v>3221</v>
       </c>
     </row>
-    <row r="29" ht="14.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="4">
+      <c r="C29" s="4">
         <v>5</v>
       </c>
-      <c r="C29" s="5">
+      <c r="D29" s="5">
         <v>53</v>
       </c>
-      <c r="D29" s="5">
+      <c r="E29" s="5">
         <v>531</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="5">
         <v>5311</v>
       </c>
     </row>
-    <row r="30" ht="14.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="4">
+      <c r="C30" s="4">
         <v>5</v>
       </c>
-      <c r="C30" s="5">
+      <c r="D30" s="5">
         <v>54</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E30" s="5">
         <v>541</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
         <v>5414</v>
       </c>
     </row>
-    <row r="31" ht="14.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="4">
+      <c r="C31" s="4">
         <v>5</v>
       </c>
-      <c r="C31" s="5">
+      <c r="D31" s="5">
         <v>54</v>
       </c>
-      <c r="D31" s="5">
+      <c r="E31" s="5">
         <v>541</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5">
         <v>5412</v>
       </c>
     </row>
-    <row r="32" ht="14.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="4">
+      <c r="C32" s="4">
         <v>5</v>
       </c>
-      <c r="C32" s="5">
+      <c r="D32" s="5">
         <v>51</v>
       </c>
-      <c r="D32" s="5">
+      <c r="E32" s="5">
         <v>515</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5">
         <v>5153</v>
       </c>
     </row>
-    <row r="33" ht="14.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="4">
+      <c r="C33" s="4">
         <v>2</v>
       </c>
-      <c r="C33" s="5">
+      <c r="D33" s="5">
         <v>26</v>
       </c>
-      <c r="D33" s="5">
+      <c r="E33" s="5">
         <v>263</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F33" s="5">
         <v>2636</v>
       </c>
     </row>
-    <row r="34" ht="14.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="4">
+      <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="C34" s="5">
+      <c r="D34" s="5">
         <v>11</v>
       </c>
-      <c r="D34" s="5">
+      <c r="E34" s="5">
         <v>112</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F34" s="5">
         <v>1120</v>
       </c>
     </row>
-    <row r="35" ht="14.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="4">
+      <c r="C35" s="4">
         <v>2</v>
       </c>
-      <c r="C35" s="5">
+      <c r="D35" s="5">
         <v>21</v>
       </c>
-      <c r="D35" s="5">
+      <c r="E35" s="5">
         <v>214</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5">
         <v>2141</v>
       </c>
     </row>
-    <row r="36" ht="14.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="2">
+      <c r="C36" s="2">
         <v>3</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D36" s="3">
         <v>33</v>
       </c>
-      <c r="D36" s="3">
+      <c r="E36" s="3">
         <v>331</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="3">
         <v>3314</v>
       </c>
     </row>
-    <row r="37" ht="14.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>0</v>
       </c>
       <c r="D37" s="3">
@@ -1362,11 +1239,12 @@
       <c r="E37" s="3">
         <v>0</v>
       </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>